--- a/RosreestrOnline/input_table.xlsx
+++ b/RosreestrOnline/input_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -40,13 +40,31 @@
     <t>Кирова</t>
   </si>
   <si>
-    <t>Франфурта</t>
-  </si>
-  <si>
     <t>9А</t>
   </si>
   <si>
     <t>Тольятти</t>
+  </si>
+  <si>
+    <t>Франкфурта</t>
+  </si>
+  <si>
+    <t>Кузнецкстроевский</t>
+  </si>
+  <si>
+    <t>переулок</t>
+  </si>
+  <si>
+    <t>Пархоменко</t>
+  </si>
+  <si>
+    <t>Индустриальный</t>
+  </si>
+  <si>
+    <t>проезд</t>
+  </si>
+  <si>
+    <t>Курбатова</t>
   </si>
 </sst>
 </file>
@@ -82,11 +100,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -386,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +443,7 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>71</v>
       </c>
     </row>
@@ -433,10 +455,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -447,10 +469,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -458,16 +480,87 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>